--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1083">
   <si>
     <t>anchor score</t>
   </si>
@@ -367,598 +367,598 @@
     <t>great</t>
   </si>
   <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>emails</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>exposed</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>coughing</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>emails</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>series</t>
+    <t>special</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>ban</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>exposed</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>hazard</t>
-  </si>
-  <si>
-    <t>coughing</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>better</t>
@@ -3628,10 +3628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K6">
         <v>0.84251968503937</v>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K8">
         <v>0.7721518987341772</v>
@@ -4060,28 +4060,28 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K10">
-        <v>0.6926406926406926</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L10">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="M10">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4110,28 +4110,28 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="K11">
-        <v>0.6888888888888889</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L11">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4160,28 +4160,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="K12">
-        <v>0.6808510638297872</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4210,7 +4210,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K13">
         <v>0.6666666666666666</v>
@@ -4260,28 +4260,28 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="K14">
-        <v>0.5902140672782875</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4313,13 +4313,13 @@
         <v>314</v>
       </c>
       <c r="K15">
-        <v>0.5833333333333334</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4410,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K17">
         <v>0.55</v>
@@ -4460,7 +4460,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K18">
         <v>0.5287356321839081</v>
@@ -4510,7 +4510,7 @@
         <v>103</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K19">
         <v>0.5223367697594502</v>
@@ -4560,7 +4560,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K20">
         <v>0.5</v>
@@ -4610,7 +4610,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K21">
         <v>0.4736842105263158</v>
@@ -4860,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K26">
         <v>0.4047619047619048</v>
@@ -5060,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K30">
         <v>0.3809523809523809</v>
@@ -5260,7 +5260,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K34">
         <v>0.3607594936708861</v>
@@ -5310,7 +5310,7 @@
         <v>15</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K35">
         <v>0.3580246913580247</v>
@@ -5360,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K36">
         <v>0.3459715639810427</v>
@@ -5410,7 +5410,7 @@
         <v>18</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K37">
         <v>0.3404255319148936</v>
@@ -5460,7 +5460,7 @@
         <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K38">
         <v>0.3398058252427185</v>
@@ -6310,7 +6310,7 @@
         <v>17</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K55">
         <v>0.3057324840764331</v>
@@ -6510,7 +6510,7 @@
         <v>372</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K59">
         <v>0.2833333333333333</v>
@@ -6560,7 +6560,7 @@
         <v>37</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K60">
         <v>0.2824427480916031</v>
@@ -6610,7 +6610,7 @@
         <v>14</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K61">
         <v>0.28125</v>
@@ -6660,7 +6660,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K62">
         <v>0.28125</v>
@@ -7010,7 +7010,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K69">
         <v>0.2557377049180328</v>
@@ -7660,7 +7660,7 @@
         <v>16</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K82">
         <v>0.2481751824817518</v>
@@ -7760,7 +7760,7 @@
         <v>11</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K84">
         <v>0.2429906542056075</v>
@@ -7960,7 +7960,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K88">
         <v>0.2380952380952381</v>
@@ -8560,7 +8560,7 @@
         <v>7</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K100">
         <v>0.2285714285714286</v>
@@ -8660,7 +8660,7 @@
         <v>14</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K102">
         <v>0.2277339346110485</v>
@@ -8810,7 +8810,7 @@
         <v>8</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K105">
         <v>0.2253521126760563</v>
@@ -9139,28 +9139,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1012658227848101</v>
+        <v>0.1</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K112">
         <v>0.2205882352941176</v>
@@ -9192,10 +9192,10 @@
         <v>0.1</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -9207,10 +9207,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K113">
         <v>0.2196969696969697</v>
@@ -9339,7 +9339,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9357,10 +9357,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K116">
         <v>0.2145251396648045</v>
@@ -9410,7 +9410,7 @@
         <v>10</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K117">
         <v>0.2142857142857143</v>
@@ -9445,16 +9445,16 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>10</v>
@@ -9489,25 +9489,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>390</v>
@@ -9539,25 +9539,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.08843537414965986</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C120">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="E120">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F120">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>391</v>
@@ -9589,13 +9589,13 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>392</v>
@@ -9639,28 +9639,28 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K122">
         <v>0.2105263157894737</v>
@@ -9710,7 +9710,7 @@
         <v>11</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K123">
         <v>0.2093023255813954</v>
@@ -9760,7 +9760,7 @@
         <v>11</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K124">
         <v>0.2085561497326203</v>
@@ -9845,22 +9845,22 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>11</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K126">
         <v>0.2079272254710851</v>
@@ -9889,25 +9889,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>394</v>
@@ -9939,25 +9939,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>395</v>
@@ -9989,25 +9989,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>396</v>
@@ -10042,10 +10042,10 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>397</v>
@@ -10089,7 +10089,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>398</v>
@@ -10139,25 +10139,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>399</v>
@@ -10195,13 +10195,13 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F133">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
@@ -10239,25 +10239,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F134">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>401</v>
@@ -10289,25 +10289,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>402</v>
@@ -10345,13 +10345,13 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F136">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -10360,7 +10360,7 @@
         <v>14</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K136">
         <v>0.2</v>
@@ -10439,25 +10439,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>404</v>
@@ -10489,7 +10489,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>405</v>
@@ -10595,16 +10595,16 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
         <v>15</v>
@@ -10695,16 +10695,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>15</v>
@@ -10745,16 +10745,16 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>15</v>
@@ -10789,25 +10789,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>411</v>
@@ -10839,25 +10839,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>412</v>
@@ -10889,25 +10889,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
         <v>3</v>
       </c>
       <c r="E147">
+        <v>0.67</v>
+      </c>
+      <c r="F147">
         <v>0.33</v>
       </c>
-      <c r="F147">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>413</v>
@@ -10945,16 +10945,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>16</v>
@@ -10989,28 +10989,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K149">
         <v>0.1998114985862394</v>
@@ -11039,28 +11039,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K150">
         <v>0.1981981981981982</v>
@@ -11092,22 +11092,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>414</v>
@@ -11160,7 +11160,7 @@
         <v>17</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K152">
         <v>0.1944444444444444</v>
@@ -11192,22 +11192,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E153">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F153">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>415</v>
@@ -11239,25 +11239,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>416</v>
@@ -11289,28 +11289,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="E155">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F155">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K155">
         <v>0.1926605504587156</v>
@@ -11345,16 +11345,16 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>18</v>
@@ -11389,28 +11389,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K157">
         <v>0.1917808219178082</v>
@@ -11439,13 +11439,13 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -11457,10 +11457,10 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K158">
         <v>0.1914893617021277</v>
@@ -11489,13 +11489,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>418</v>
@@ -11542,22 +11542,22 @@
         <v>0.05</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>419</v>
@@ -11589,28 +11589,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K161">
         <v>0.1851851851851852</v>
@@ -11639,25 +11639,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="E162">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F162">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>420</v>
@@ -11689,25 +11689,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04878048780487805</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
       <c r="D163">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E163">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F163">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>421</v>
@@ -11739,25 +11739,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04761904761904762</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="E164">
-        <v>0.99</v>
+        <v>0.71</v>
       </c>
       <c r="F164">
-        <v>0.01000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>422</v>
@@ -11789,25 +11789,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>423</v>
@@ -11839,25 +11839,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="F166">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>424</v>
@@ -11895,16 +11895,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>21</v>
@@ -11939,25 +11939,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>426</v>
@@ -11989,25 +11989,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>427</v>
@@ -12039,13 +12039,13 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -12057,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>428</v>
@@ -12195,13 +12195,13 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
@@ -12239,25 +12239,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>432</v>
@@ -12289,25 +12289,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>433</v>
@@ -12345,13 +12345,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -12395,16 +12395,16 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>23</v>
@@ -12460,7 +12460,7 @@
         <v>23</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K178">
         <v>0.1764705882352941</v>
@@ -12489,25 +12489,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>436</v>
@@ -12539,25 +12539,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>437</v>
@@ -12589,25 +12589,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>438</v>
@@ -12639,13 +12639,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.04</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E182">
         <v>0.86</v>
@@ -12657,7 +12657,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>439</v>
@@ -12689,28 +12689,28 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K183">
         <v>0.1739130434782609</v>
@@ -12739,28 +12739,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0379746835443038</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K184">
         <v>0.1732283464566929</v>
@@ -12810,7 +12810,7 @@
         <v>26</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K185">
         <v>0.1702127659574468</v>
@@ -12839,25 +12839,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03703703703703703</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>440</v>
@@ -12889,25 +12889,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>441</v>
@@ -12939,28 +12939,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03614457831325301</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C188">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K188">
         <v>0.1666666666666667</v>
@@ -12989,25 +12989,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03571428571428571</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>442</v>
@@ -13039,25 +13039,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03571428571428571</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="F190">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>443</v>
@@ -13089,25 +13089,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03296703296703297</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E191">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F191">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>444</v>
@@ -13139,25 +13139,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03278688524590164</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E192">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>445</v>
@@ -13195,13 +13195,13 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -13239,25 +13239,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>447</v>
@@ -13289,28 +13289,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03225806451612903</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K195">
         <v>0.1666666666666667</v>
@@ -13339,25 +13339,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>448</v>
@@ -13389,25 +13389,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03092783505154639</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F197">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>449</v>
@@ -13439,25 +13439,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>450</v>
@@ -13489,25 +13489,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02941176470588235</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D199">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E199">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F199">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>451</v>
@@ -13539,25 +13539,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02857142857142857</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>452</v>
@@ -13589,25 +13589,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02816901408450704</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D201">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="E201">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>453</v>
@@ -13639,25 +13639,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02797202797202797</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>454</v>
@@ -13689,25 +13689,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C203">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>455</v>
@@ -13739,25 +13739,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>456</v>
@@ -13789,25 +13789,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>457</v>
@@ -13839,25 +13839,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E206">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F206">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>458</v>
@@ -13889,25 +13889,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.1899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>459</v>
@@ -13939,25 +13939,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02631578947368421</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E208">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F208">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>460</v>
@@ -13989,25 +13989,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02564102564102564</v>
+        <v>0.02527075812274368</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>461</v>
@@ -14039,25 +14039,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02531645569620253</v>
+        <v>0.025</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>462</v>
@@ -14089,25 +14089,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02527075812274368</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C211">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F211">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>463</v>
@@ -14139,25 +14139,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>464</v>
@@ -14195,13 +14195,13 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
@@ -14239,25 +14239,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>466</v>
@@ -14289,25 +14289,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E215">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F215">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>467</v>
@@ -14339,25 +14339,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>468</v>
@@ -14389,25 +14389,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>469</v>
@@ -14439,25 +14439,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02222222222222222</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>470</v>
@@ -14489,25 +14489,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>471</v>
@@ -14539,25 +14539,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02197802197802198</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
       <c r="D220">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E220">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="F220">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>472</v>
@@ -14595,13 +14595,13 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
@@ -14639,25 +14639,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02173913043478261</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D222">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E222">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F222">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>474</v>
@@ -14689,25 +14689,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E223">
-        <v>0.99</v>
+        <v>0.78</v>
       </c>
       <c r="F223">
-        <v>0.01000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>475</v>
@@ -14739,25 +14739,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02158273381294964</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C224">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="E224">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="F224">
-        <v>0.04000000000000004</v>
+        <v>0.29</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>272</v>
+        <v>93</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>476</v>
@@ -14789,28 +14789,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02127659574468085</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
       <c r="D225">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="F225">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K225">
         <v>0.1612903225806452</v>
@@ -14839,25 +14839,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02105263157894737</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>477</v>
@@ -14889,25 +14889,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02105263157894737</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E227">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F227">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>478</v>
@@ -14939,25 +14939,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F228">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>479</v>
@@ -14989,28 +14989,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02040816326530612</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E229">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="F229">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K229">
         <v>0.16</v>
@@ -15039,28 +15039,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F230">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K230">
         <v>0.16</v>
@@ -15089,25 +15089,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0202020202020202</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E231">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F231">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>480</v>
@@ -15139,25 +15139,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E232">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F232">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>481</v>
@@ -15189,25 +15189,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F233">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>482</v>
@@ -15239,28 +15239,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01923076923076923</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
       <c r="D234">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E234">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F234">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K234">
         <v>0.1588785046728972</v>
@@ -15289,25 +15289,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E235">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F235">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>483</v>
@@ -15339,25 +15339,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01869158878504673</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>484</v>
@@ -15389,28 +15389,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01818181818181818</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E237">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F237">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K237">
         <v>0.1548311990686845</v>
@@ -15439,7 +15439,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15457,10 +15457,10 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K238">
         <v>0.1541353383458647</v>
@@ -15489,28 +15489,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01801801801801802</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E239">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F239">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K239">
         <v>0.1538461538461539</v>
@@ -15539,25 +15539,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>485</v>
@@ -15589,25 +15589,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>486</v>
@@ -15639,28 +15639,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F242">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K242">
         <v>0.1530612244897959</v>
@@ -15689,25 +15689,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>487</v>
@@ -15745,13 +15745,13 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E244">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F244">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
@@ -15789,28 +15789,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K245">
         <v>0.15</v>
@@ -15839,25 +15839,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E246">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F246">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>489</v>
@@ -15889,25 +15889,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>490</v>
@@ -15939,28 +15939,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E248">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F248">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K248">
         <v>0.1481481481481481</v>
@@ -15989,25 +15989,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01666666666666667</v>
+        <v>0.0160857908847185</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D249">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E249">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>491</v>
@@ -16039,28 +16039,28 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01666666666666667</v>
+        <v>0.01592356687898089</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D250">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="E250">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F250">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>59</v>
+        <v>309</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K250">
         <v>0.1475409836065574</v>
@@ -16089,25 +16089,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0160857908847185</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C251">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D251">
         <v>6</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>367</v>
+        <v>64</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>492</v>
@@ -16139,25 +16139,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01592356687898089</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C252">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="E252">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F252">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>309</v>
+        <v>66</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>493</v>
@@ -16189,25 +16189,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01538461538461539</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E253">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F253">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>494</v>
@@ -16239,25 +16239,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01492537313432836</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D254">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E254">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F254">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>495</v>
@@ -16289,28 +16289,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01492537313432836</v>
+        <v>0.0147329650092081</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D255">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="E255">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F255">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>66</v>
+        <v>535</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K255">
         <v>0.1428571428571428</v>
@@ -16339,25 +16339,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01481481481481482</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C256">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E256">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>496</v>
@@ -16389,25 +16389,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0147329650092081</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C257">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="E257">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F257">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>535</v>
+        <v>67</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>497</v>
@@ -16439,25 +16439,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01470588235294118</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>498</v>
@@ -16489,25 +16489,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01470588235294118</v>
+        <v>0.01403508771929825</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D259">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E259">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F259">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>499</v>
@@ -16539,25 +16539,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01428571428571429</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E260">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F260">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>500</v>
@@ -16589,25 +16589,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01403508771929825</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C261">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D261">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E261">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F261">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>281</v>
+        <v>444</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>501</v>
@@ -16639,25 +16639,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01351351351351351</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E262">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F262">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>502</v>
@@ -16689,28 +16689,28 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01333333333333333</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="C263">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D263">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E263">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F263">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>444</v>
+        <v>227</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K263">
         <v>0.1428571428571428</v>
@@ -16739,25 +16739,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0131578947368421</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E264">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F264">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>503</v>
@@ -16789,25 +16789,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01304347826086956</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="E265">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F265">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>504</v>
@@ -16839,25 +16839,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01298701298701299</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E266">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F266">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>505</v>
@@ -16889,25 +16889,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01298701298701299</v>
+        <v>0.01221640488656195</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D267">
-        <v>9</v>
+        <v>445</v>
       </c>
       <c r="E267">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F267">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>76</v>
+        <v>1698</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>506</v>
@@ -16939,25 +16939,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01265822784810127</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E268">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F268">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>507</v>
@@ -16989,25 +16989,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01221640488656195</v>
+        <v>0.01175516822051074</v>
       </c>
       <c r="C269">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D269">
-        <v>445</v>
+        <v>669</v>
       </c>
       <c r="E269">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F269">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>1698</v>
+        <v>2438</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>508</v>
@@ -17039,25 +17039,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0119047619047619</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E270">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F270">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>509</v>
@@ -17089,25 +17089,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01175516822051074</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C271">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>669</v>
+        <v>10</v>
       </c>
       <c r="E271">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F271">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>2438</v>
+        <v>86</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>510</v>
@@ -17139,25 +17139,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01162790697674419</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E272">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F272">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>511</v>
@@ -17189,25 +17189,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01149425287356322</v>
+        <v>0.0108991825613079</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D273">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="E273">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F273">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>86</v>
+        <v>726</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>512</v>
@@ -17239,25 +17239,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01111111111111111</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E274">
-        <v>0.96</v>
+        <v>0.33</v>
       </c>
       <c r="F274">
-        <v>0.04000000000000004</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>513</v>
@@ -17289,25 +17289,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0108991825613079</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C275">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="E275">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F275">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>726</v>
+        <v>97</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>514</v>
@@ -17339,25 +17339,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01063829787234043</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="C276">
         <v>2</v>
       </c>
       <c r="D276">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E276">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="F276">
-        <v>0.6699999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>515</v>
@@ -17389,25 +17389,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01020408163265306</v>
+        <v>0.01011560693641619</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="E277">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F277">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>97</v>
+        <v>685</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>516</v>
@@ -17439,25 +17439,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01015228426395939</v>
+        <v>0.009861932938856016</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D278">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E278">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F278">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>195</v>
+        <v>502</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>517</v>
@@ -17489,25 +17489,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.01011560693641619</v>
+        <v>0.009836065573770493</v>
       </c>
       <c r="C279">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D279">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="E279">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="F279">
-        <v>0.03000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>685</v>
+        <v>906</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>518</v>
@@ -17539,25 +17539,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.009861932938856016</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
         <v>5</v>
       </c>
-      <c r="D280">
-        <v>43</v>
-      </c>
       <c r="E280">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F280">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>502</v>
+        <v>101</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>519</v>
@@ -17589,25 +17589,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.009836065573770493</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C281">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E281">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="F281">
-        <v>0.15</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>906</v>
+        <v>101</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>520</v>
@@ -17639,25 +17639,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.009803921568627451</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E282">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F282">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>521</v>
@@ -17689,25 +17689,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.009803921568627451</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E283">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F283">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>522</v>
@@ -17739,25 +17739,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.009708737864077669</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E284">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F284">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>523</v>
@@ -17789,25 +17789,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.00966183574879227</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E285">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F285">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>524</v>
@@ -17839,13 +17839,13 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.009615384615384616</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E286">
         <v>0.97</v>
@@ -17857,7 +17857,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>525</v>
@@ -17889,25 +17889,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.009523809523809525</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E287">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F287">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>526</v>
@@ -17939,13 +17939,13 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.009345794392523364</v>
+        <v>0.008462623413258111</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D288">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="E288">
         <v>0.97</v>
@@ -17957,7 +17957,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>106</v>
+        <v>703</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>527</v>
@@ -17989,25 +17989,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.008547008547008548</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F289">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>528</v>
@@ -18039,25 +18039,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.008462623413258111</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C290">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="E290">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F290">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>703</v>
+        <v>123</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>529</v>
@@ -18089,25 +18089,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.008403361344537815</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E291">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F291">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>530</v>
@@ -18139,28 +18139,28 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.008064516129032258</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E292">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F292">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K292">
         <v>0.1384615384615385</v>
@@ -18189,25 +18189,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.007936507936507936</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E293">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F293">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>531</v>
@@ -18239,25 +18239,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.007751937984496124</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E294">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F294">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>532</v>
@@ -18289,25 +18289,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.007751937984496124</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D295">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="E295">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F295">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>128</v>
+        <v>2780</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>533</v>
@@ -18339,25 +18339,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.007633587786259542</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E296">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F296">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>534</v>
@@ -18389,25 +18389,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.007142857142857143</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C297">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>421</v>
+        <v>16</v>
       </c>
       <c r="E297">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F297">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>2780</v>
+        <v>150</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>535</v>
@@ -18439,25 +18439,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.006622516556291391</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E298">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F298">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>536</v>
@@ -18489,25 +18489,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.006622516556291391</v>
+        <v>0.005703422053231939</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D299">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="E299">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F299">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>150</v>
+        <v>1046</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>537</v>
@@ -18539,25 +18539,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.006134969325153374</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E300">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F300">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>538</v>
@@ -18589,25 +18589,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.005703422053231939</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="C301">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="E301">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F301">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>1046</v>
+        <v>225</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>539</v>
@@ -18639,25 +18639,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.005494505494505495</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E302">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F302">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>540</v>
@@ -18689,25 +18689,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.004424778761061947</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E303">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F303">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>541</v>
@@ -18739,25 +18739,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.004273504273504274</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E304">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F304">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>542</v>
@@ -18789,25 +18789,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.003636363636363636</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E305">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F305">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>274</v>
+        <v>449</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>543</v>
@@ -18835,30 +18835,6 @@
       </c>
     </row>
     <row r="306" spans="1:17">
-      <c r="A306" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B306">
-        <v>0.002949852507374631</v>
-      </c>
-      <c r="C306">
-        <v>1</v>
-      </c>
-      <c r="D306">
-        <v>22</v>
-      </c>
-      <c r="E306">
-        <v>0.95</v>
-      </c>
-      <c r="F306">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G306" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306">
-        <v>338</v>
-      </c>
       <c r="J306" s="1" t="s">
         <v>544</v>
       </c>
@@ -18885,30 +18861,6 @@
       </c>
     </row>
     <row r="307" spans="1:17">
-      <c r="A307" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B307">
-        <v>0.002222222222222222</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-      <c r="D307">
-        <v>15</v>
-      </c>
-      <c r="E307">
-        <v>0.93</v>
-      </c>
-      <c r="F307">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G307" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307">
-        <v>449</v>
-      </c>
       <c r="J307" s="1" t="s">
         <v>545</v>
       </c>
@@ -18962,7 +18914,7 @@
     </row>
     <row r="309" spans="1:17">
       <c r="J309" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K309">
         <v>0.1333333333333333</v>
@@ -18988,7 +18940,7 @@
     </row>
     <row r="310" spans="1:17">
       <c r="J310" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K310">
         <v>0.1333333333333333</v>
@@ -19040,7 +18992,7 @@
     </row>
     <row r="312" spans="1:17">
       <c r="J312" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K312">
         <v>0.1323529411764706</v>
@@ -19092,7 +19044,7 @@
     </row>
     <row r="314" spans="1:17">
       <c r="J314" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K314">
         <v>0.131578947368421</v>
@@ -19144,7 +19096,7 @@
     </row>
     <row r="316" spans="1:17">
       <c r="J316" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K316">
         <v>0.1308411214953271</v>
@@ -19274,7 +19226,7 @@
     </row>
     <row r="321" spans="10:17">
       <c r="J321" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K321">
         <v>0.1290322580645161</v>
@@ -19300,7 +19252,7 @@
     </row>
     <row r="322" spans="10:17">
       <c r="J322" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K322">
         <v>0.1260609871109714</v>
@@ -19924,7 +19876,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K346">
         <v>0.125</v>
@@ -20522,7 +20474,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K369">
         <v>0.1228070175438596</v>
@@ -20548,7 +20500,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K370">
         <v>0.1224489795918367</v>
@@ -20574,7 +20526,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K371">
         <v>0.1219512195121951</v>
@@ -21068,7 +21020,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K390">
         <v>0.1149425287356322</v>
@@ -21224,7 +21176,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K396">
         <v>0.1111111111111111</v>
@@ -22108,7 +22060,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K430">
         <v>0.108695652173913</v>
@@ -22212,7 +22164,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K434">
         <v>0.1071428571428571</v>
@@ -22316,7 +22268,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K438">
         <v>0.1058823529411765</v>
@@ -22498,7 +22450,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K445">
         <v>0.1048387096774194</v>
@@ -22550,7 +22502,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K447">
         <v>0.1039426523297491</v>
@@ -22732,7 +22684,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K454">
         <v>0.1016393442622951</v>
@@ -22784,7 +22736,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K456">
         <v>0.1</v>
@@ -22940,7 +22892,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K462">
         <v>0.1</v>
@@ -23668,7 +23620,7 @@
     </row>
     <row r="490" spans="10:17">
       <c r="J490" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K490">
         <v>0.09615384615384616</v>
@@ -23694,7 +23646,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K491">
         <v>0.09574468085106383</v>
@@ -23746,7 +23698,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K493">
         <v>0.09523809523809523</v>
@@ -23824,7 +23776,7 @@
     </row>
     <row r="496" spans="10:17">
       <c r="J496" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K496">
         <v>0.09473684210526316</v>
@@ -23850,7 +23802,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K497">
         <v>0.09437229437229437</v>
@@ -23902,7 +23854,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K499">
         <v>0.09183673469387756</v>
@@ -23980,7 +23932,7 @@
     </row>
     <row r="502" spans="10:17">
       <c r="J502" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K502">
         <v>0.09090909090909091</v>
@@ -24006,7 +23958,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K503">
         <v>0.09090909090909091</v>
@@ -24058,7 +24010,7 @@
     </row>
     <row r="505" spans="10:17">
       <c r="J505" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K505">
         <v>0.09090909090909091</v>
@@ -24162,7 +24114,7 @@
     </row>
     <row r="509" spans="10:17">
       <c r="J509" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K509">
         <v>0.09090909090909091</v>
@@ -24760,7 +24712,7 @@
     </row>
     <row r="532" spans="10:17">
       <c r="J532" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K532">
         <v>0.08888888888888889</v>
@@ -25098,7 +25050,7 @@
     </row>
     <row r="545" spans="10:17">
       <c r="J545" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K545">
         <v>0.08661417322834646</v>
@@ -25124,7 +25076,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K546">
         <v>0.08520179372197309</v>
@@ -25150,7 +25102,7 @@
     </row>
     <row r="547" spans="10:17">
       <c r="J547" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K547">
         <v>0.08490566037735849</v>
@@ -25878,7 +25830,7 @@
     </row>
     <row r="575" spans="10:17">
       <c r="J575" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K575">
         <v>0.0821917808219178</v>
@@ -25904,7 +25856,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K576">
         <v>0.08163265306122448</v>
@@ -25982,7 +25934,7 @@
     </row>
     <row r="579" spans="10:17">
       <c r="J579" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K579">
         <v>0.08064516129032258</v>
@@ -26086,7 +26038,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K583">
         <v>0.08</v>
@@ -26138,7 +26090,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K585">
         <v>0.08</v>
@@ -26216,7 +26168,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K588">
         <v>0.078125</v>
@@ -26606,7 +26558,7 @@
     </row>
     <row r="603" spans="10:17">
       <c r="J603" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K603">
         <v>0.07692307692307693</v>
@@ -26918,7 +26870,7 @@
     </row>
     <row r="615" spans="10:17">
       <c r="J615" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K615">
         <v>0.07407407407407407</v>
@@ -27100,7 +27052,7 @@
     </row>
     <row r="622" spans="10:17">
       <c r="J622" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K622">
         <v>0.07246376811594203</v>
@@ -27178,7 +27130,7 @@
     </row>
     <row r="625" spans="10:17">
       <c r="J625" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K625">
         <v>0.07142857142857142</v>
@@ -27854,7 +27806,7 @@
     </row>
     <row r="651" spans="10:17">
       <c r="J651" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K651">
         <v>0.0707070707070707</v>
@@ -27880,7 +27832,7 @@
     </row>
     <row r="652" spans="10:17">
       <c r="J652" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K652">
         <v>0.07037037037037037</v>
@@ -28244,7 +28196,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K666">
         <v>0.06666666666666667</v>
@@ -28660,7 +28612,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K682">
         <v>0.06569343065693431</v>
@@ -28686,7 +28638,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K683">
         <v>0.06569343065693431</v>
@@ -28868,7 +28820,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K690">
         <v>0.06382978723404255</v>
@@ -28894,7 +28846,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K691">
         <v>0.06349206349206349</v>
@@ -29076,7 +29028,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K698">
         <v>0.0625</v>
@@ -30194,7 +30146,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K741">
         <v>0.0584958217270195</v>
@@ -30610,7 +30562,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K757">
         <v>0.05526590198123045</v>
@@ -31052,7 +31004,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K774">
         <v>0.05128205128205128</v>
@@ -31104,7 +31056,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K776">
         <v>0.05102040816326531</v>
@@ -31910,7 +31862,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K807">
         <v>0.04545454545454546</v>
@@ -31936,7 +31888,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K808">
         <v>0.04545454545454546</v>
@@ -31962,7 +31914,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K809">
         <v>0.04545454545454546</v>
@@ -32170,7 +32122,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K817">
         <v>0.04411764705882353</v>
@@ -32326,7 +32278,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K823">
         <v>0.04347826086956522</v>
@@ -32352,7 +32304,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K824">
         <v>0.04347826086956522</v>
@@ -32612,7 +32564,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K834">
         <v>0.04166666666666666</v>
@@ -32794,7 +32746,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K841">
         <v>0.04</v>
@@ -33002,7 +32954,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K849">
         <v>0.0380952380952381</v>
@@ -33080,7 +33032,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K852">
         <v>0.03703703703703703</v>
@@ -33236,7 +33188,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K858">
         <v>0.03571428571428571</v>
@@ -33704,7 +33656,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K876">
         <v>0.03125</v>
@@ -33808,7 +33760,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K880">
         <v>0.03023758099352052</v>
@@ -33834,7 +33786,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K881">
         <v>0.03</v>
@@ -33938,7 +33890,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K885">
         <v>0.02857142857142857</v>
@@ -34016,7 +33968,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K888">
         <v>0.02768166089965398</v>
@@ -34250,7 +34202,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K897">
         <v>0.02666666666666667</v>
@@ -34406,7 +34358,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K903">
         <v>0.025</v>
@@ -34796,7 +34748,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K918">
         <v>0.02162162162162162</v>
@@ -34848,7 +34800,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K920">
         <v>0.02040816326530612</v>
@@ -34874,7 +34826,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K921">
         <v>0.01724137931034483</v>
@@ -34978,7 +34930,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K925">
         <v>0.016</v>
@@ -35030,7 +34982,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K927">
         <v>0.008510638297872341</v>
@@ -35056,7 +35008,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K928">
         <v>0.0053475935828877</v>
